--- a/ESPD-EDM/2.1.1/_attachments/assets/new_UUIDs_for_eCertis.xlsx
+++ b/ESPD-EDM/2.1.1/_attachments/assets/new_UUIDs_for_eCertis.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hricolor\everis\ESPD - ESPD\03- Deliverables\02- Contract 2020\Documentation Simplification\03. Release Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrevenga\everis\ESPD - ESPD\03- Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
   <sheets>
-    <sheet name="UUIDs3.0.0" sheetId="2" r:id="rId1"/>
+    <sheet name="UUIDs" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Target</t>
   </si>
@@ -53,69 +53,68 @@
     <t>Criterion created</t>
   </si>
   <si>
-    <t>Criterion removed</t>
-  </si>
-  <si>
-    <t>OTHER.EO_DATA.LOTS_TENDERED</t>
-  </si>
-  <si>
-    <t>8b9700b7-b13c-41e6-a220-6bbf8d5fab31</t>
-  </si>
-  <si>
-    <t>0e50931d-4d39-4f1d-9fdc-b2cf16c0807a</t>
-  </si>
-  <si>
-    <t>Selection Criteria Group "Does the economic operator fulfills the criteria by itself"?</t>
-  </si>
-  <si>
-    <t>Group added</t>
-  </si>
-  <si>
-    <t>Subgrup added</t>
-  </si>
-  <si>
-    <t>fe557ed0-2387-478f-a9be-d0f3457c088e</t>
-  </si>
-  <si>
-    <t>Selection Criteria subgroup "In the case of no – Relied upon or not"</t>
-  </si>
-  <si>
-    <t>e296a1cc-83d3-48ac-b4e4-7e7d0ae0af25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection Criteria subgroup to identify the Economic Operator relied on. </t>
-  </si>
-  <si>
-    <t>b01d8f8f-ceac-4b47-b7aa-88cdeb630465</t>
-  </si>
-  <si>
-    <t>Requirement group added</t>
-  </si>
-  <si>
-    <t>Selection Criterion "prof-regist"</t>
+    <t>OTHER.EO.SME</t>
+  </si>
+  <si>
+    <t>ede30cb7-70c2-4ead-ba11-22d0cac5ab7a</t>
+  </si>
+  <si>
+    <t>Basic, Extended</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>OTHER.EO.SME_1st_question_subgroup</t>
+  </si>
+  <si>
+    <t>0aef9d77-7bcd-411e-b49e-f6b6cd47312c</t>
+  </si>
+  <si>
+    <t>Question subgroup created</t>
+  </si>
+  <si>
+    <t>5ee707fa-21fa-4966-9c1e-b9b4a98b6e98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8d79d5f7-dc21-45e9-b188-e02008b854e0</t>
+  </si>
+  <si>
+    <t>EG_PURELY_NATIONAL_1st_question_subgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4f5088db-ae29-46fb-b642-30240aa2248a</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>SC-Suitability-II (Criterion 27)_1st_question_subgroup</t>
+  </si>
+  <si>
+    <t>7696fb3f-9722-43b8-9b91-ad59bb4b8ad2</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>OTHER.EO.SME_1st_question_group</t>
+  </si>
+  <si>
+    <t>EG_PURELY_NATIONAL_1st_question_group</t>
+  </si>
+  <si>
+    <t>Question group created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,8 +158,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -171,24 +174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,24 +199,24 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>336550</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:colOff>1648332</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>10674</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>14</xdr:col>
-          <xdr:colOff>292100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>1708150</xdr:rowOff>
+          <xdr:col>17</xdr:col>
+          <xdr:colOff>494117</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>10179</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="Picture 28"/>
+            <xdr:cNvPr id="14" name="Picture 13"/>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'[1]UTILITIES-SELECTION-OTHER'!$B$1:$Z$9" spid="_x0000_s2053"/>
+                  <a14:cameraTool cellRange="'[1]OTHER-EO-SME'!$B$2:$Z$10" spid="_x0000_s1097"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -245,7 +230,180 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7283450" y="234950"/>
+              <a:off x="8095450" y="3185674"/>
+              <a:ext cx="9016892" cy="1667969"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1655272</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>36285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>491207</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1331685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8095986" y="5070928"/>
+          <a:ext cx="7749026" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>7470</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>29883</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>494357</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>772833</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Picture 17"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'[1]OTHER-EO-SME'!$D$5:$X$8" spid="_x0000_s1098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8113058" y="6245412"/>
+              <a:ext cx="6568141" cy="742950"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>1657350</xdr:rowOff>
+        </xdr:to>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="Picture 28"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+              <a:extLst>
+                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
+                  <a14:cameraTool cellRange="'[1]UTILITIES-SELECTION-OTHER'!$B$1:$Z$9" spid="_x0000_s1099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="8407400" y="184150"/>
               <a:ext cx="8337550" cy="1657350"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -270,26 +428,26 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>406400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>122382</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>503382</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1884218</xdr:rowOff>
+      <xdr:rowOff>1477818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 31"/>
+        <xdr:cNvPr id="32" name="Picture 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -303,8 +461,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7512050" y="2425700"/>
-          <a:ext cx="7361382" cy="1477818"/>
+          <a:off x="8102600" y="1892300"/>
+          <a:ext cx="8985250" cy="1479550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -325,190 +483,165 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>431800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>32122</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1162088</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>314778</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1293586</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPr id="35" name="Picture 34"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7550150" y="4895850"/>
-          <a:ext cx="7233022" cy="730288"/>
+          <a:off x="8102600" y="7181850"/>
+          <a:ext cx="10007600" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495692</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1803463</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209055</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>930088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4"/>
+        <xdr:cNvPr id="36" name="Picture 35"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7969250" y="6883400"/>
-          <a:ext cx="7633092" cy="1231963"/>
+          <a:off x="8102600" y="8521700"/>
+          <a:ext cx="9296400" cy="927100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>336550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>470290</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1562163</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533234</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>742950</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5"/>
+        <xdr:cNvPr id="41" name="Picture 40"/>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7994650" y="9093200"/>
-          <a:ext cx="7582290" cy="1225613"/>
+          <a:off x="8407400" y="9480550"/>
+          <a:ext cx="7804150" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>571500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>521088</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1809814</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8077200" y="11176000"/>
-          <a:ext cx="7550538" cy="1238314"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>717177</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>419103</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1600647</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8210177" y="13215471"/>
-          <a:ext cx="7321926" cy="1428823"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -606,7 +739,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -868,223 +1001,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" customWidth="1"/>
-    <col min="2" max="2" width="37.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="46.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="134.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:18" s="3" customFormat="1" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="4" customFormat="1" ht="131.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="s">
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="4" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="105.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="4" customFormat="1" ht="75.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" ht="192.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:R1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6C5B8CC32BC1140B6F0C5F77127AF3D" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f9906d15404da19ccaababfe70229083">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12d6af70-178b-4e5d-9119-f14160711e65" xmlns:ns3="d384abb4-6cb5-4f67-8867-449f3dc2801e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="af6a10e2a5137a13ea0e620176f15841" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D6C5B8CC32BC1140B6F0C5F77127AF3D" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8c86faed7b88d205f867f96f7b6d2ab">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12d6af70-178b-4e5d-9119-f14160711e65" xmlns:ns3="d384abb4-6cb5-4f67-8867-449f3dc2801e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d4cfa5e7f05e5fea3a6ca2c82418dbe9" ns2:_="" ns3:_="">
     <xsd:import namespace="12d6af70-178b-4e5d-9119-f14160711e65"/>
     <xsd:import namespace="d384abb4-6cb5-4f67-8867-449f3dc2801e"/>
     <xsd:element name="properties">
@@ -1099,11 +1186,6 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1134,33 +1216,6 @@
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1294,6 +1349,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1302,37 +1363,46 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C0B094E-03E3-4A24-888A-BCFC773537A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E628DC8D-4860-44FD-B305-7408030B078F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12d6af70-178b-4e5d-9119-f14160711e65"/>
+    <ds:schemaRef ds:uri="d384abb4-6cb5-4f67-8867-449f3dc2801e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{613F1EC5-6A28-4DD1-B6F2-8F12976B6ABE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="12d6af70-178b-4e5d-9119-f14160711e65"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d384abb4-6cb5-4f67-8867-449f3dc2801e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9277922-3C73-45CB-8391-645FFE69E248}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{613F1EC5-6A28-4DD1-B6F2-8F12976B6ABE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d384abb4-6cb5-4f67-8867-449f3dc2801e"/>
-    <ds:schemaRef ds:uri="12d6af70-178b-4e5d-9119-f14160711e65"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>